--- a/data-viz/inputs/EU2 GPP 2023 Codebook.xlsx
+++ b/data-viz/inputs/EU2 GPP 2023 Codebook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/EU Subnational/EU-S Data/reports/eu-gpp-report/data-viz/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1876" documentId="8_{65496F24-8EF0-4EA9-80D0-E64665E9412B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79F6E3CA-DF93-4424-BEBA-1E5F832AFC98}"/>
+  <xr:revisionPtr revIDLastSave="1878" documentId="8_{65496F24-8EF0-4EA9-80D0-E64665E9412B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E322A35-D1B4-4D1E-B175-820DFF43E30F}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2775" yWindow="-14070" windowWidth="17280" windowHeight="8925" tabRatio="895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codebook" sheetId="18" r:id="rId1"/>
@@ -9632,13 +9632,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K452"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C270" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C187" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I272" sqref="I272"/>
+      <selection pane="bottomRight" activeCell="F184" sqref="F184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9688,7 +9689,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>1609</v>
       </c>
@@ -9720,7 +9721,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>1613</v>
       </c>
@@ -9749,7 +9750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>1615</v>
       </c>
@@ -9781,7 +9782,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>1616</v>
       </c>
@@ -9813,7 +9814,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>1620</v>
       </c>
@@ -9845,7 +9846,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>1624</v>
       </c>
@@ -9877,7 +9878,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>1627</v>
       </c>
@@ -9909,7 +9910,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
@@ -9938,7 +9939,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>1622</v>
       </c>
@@ -9970,7 +9971,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>1629</v>
       </c>
@@ -10002,7 +10003,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>6</v>
       </c>
@@ -10031,7 +10032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="66" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -10060,7 +10061,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -10089,7 +10090,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="198" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="198" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -10118,7 +10119,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="198" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="198" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10150,7 +10151,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
@@ -10179,7 +10180,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>29</v>
       </c>
@@ -10208,7 +10209,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>31</v>
       </c>
@@ -10237,7 +10238,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
@@ -10266,7 +10267,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>42</v>
       </c>
@@ -10295,7 +10296,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>46</v>
       </c>
@@ -10324,7 +10325,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>50</v>
       </c>
@@ -10353,7 +10354,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>54</v>
       </c>
@@ -10382,7 +10383,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>58</v>
       </c>
@@ -10411,7 +10412,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>62</v>
       </c>
@@ -10440,7 +10441,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>66</v>
       </c>
@@ -10469,7 +10470,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>70</v>
       </c>
@@ -10498,7 +10499,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>74</v>
       </c>
@@ -10527,7 +10528,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>78</v>
       </c>
@@ -10556,7 +10557,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>84</v>
       </c>
@@ -10585,7 +10586,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>87</v>
       </c>
@@ -10614,7 +10615,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>90</v>
       </c>
@@ -10643,7 +10644,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>93</v>
       </c>
@@ -10672,7 +10673,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>96</v>
       </c>
@@ -10701,7 +10702,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>99</v>
       </c>
@@ -10730,7 +10731,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>104</v>
       </c>
@@ -10759,7 +10760,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>107</v>
       </c>
@@ -10788,7 +10789,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>110</v>
       </c>
@@ -10817,7 +10818,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>113</v>
       </c>
@@ -10846,7 +10847,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>116</v>
       </c>
@@ -10875,7 +10876,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>119</v>
       </c>
@@ -10904,7 +10905,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>122</v>
       </c>
@@ -10933,7 +10934,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>125</v>
       </c>
@@ -10962,7 +10963,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>128</v>
       </c>
@@ -10991,7 +10992,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>131</v>
       </c>
@@ -11020,7 +11021,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>134</v>
       </c>
@@ -11049,7 +11050,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>138</v>
       </c>
@@ -11078,7 +11079,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>140</v>
       </c>
@@ -11107,7 +11108,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>142</v>
       </c>
@@ -11136,7 +11137,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="132" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="132" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>144</v>
       </c>
@@ -11165,7 +11166,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>146</v>
       </c>
@@ -11194,7 +11195,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>148</v>
       </c>
@@ -11223,7 +11224,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>152</v>
       </c>
@@ -11252,7 +11253,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>157</v>
       </c>
@@ -11281,7 +11282,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>161</v>
       </c>
@@ -11310,7 +11311,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>165</v>
       </c>
@@ -11339,7 +11340,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>169</v>
       </c>
@@ -11368,7 +11369,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>173</v>
       </c>
@@ -11397,7 +11398,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>177</v>
       </c>
@@ -11426,7 +11427,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>180</v>
       </c>
@@ -11455,7 +11456,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>183</v>
       </c>
@@ -11484,7 +11485,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>186</v>
       </c>
@@ -11513,7 +11514,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>189</v>
       </c>
@@ -11542,7 +11543,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>193</v>
       </c>
@@ -11571,7 +11572,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>195</v>
       </c>
@@ -11600,7 +11601,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="145.19999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>197</v>
       </c>
@@ -11629,7 +11630,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="184.8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="198" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>199</v>
       </c>
@@ -11658,7 +11659,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="184.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>203</v>
       </c>
@@ -11687,7 +11688,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="211.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>206</v>
       </c>
@@ -11716,7 +11717,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="198" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="211.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>1331</v>
       </c>
@@ -11745,7 +11746,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>211</v>
       </c>
@@ -11774,7 +11775,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>216</v>
       </c>
@@ -11803,7 +11804,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>219</v>
       </c>
@@ -11832,7 +11833,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>222</v>
       </c>
@@ -11861,7 +11862,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>224</v>
       </c>
@@ -11890,7 +11891,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>226</v>
       </c>
@@ -11919,7 +11920,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>228</v>
       </c>
@@ -11948,7 +11949,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>1330</v>
       </c>
@@ -11977,7 +11978,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>231</v>
       </c>
@@ -12006,7 +12007,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>233</v>
       </c>
@@ -12035,7 +12036,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>973</v>
       </c>
@@ -12064,7 +12065,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>974</v>
       </c>
@@ -12093,7 +12094,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>975</v>
       </c>
@@ -12122,7 +12123,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="211.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="211.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>976</v>
       </c>
@@ -12151,7 +12152,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="184.8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="211.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>1631</v>
       </c>
@@ -12180,7 +12181,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="184.8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="184.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>978</v>
       </c>
@@ -12209,7 +12210,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="145.19999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>979</v>
       </c>
@@ -12238,7 +12239,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>980</v>
       </c>
@@ -12267,7 +12268,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="198" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="198" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>981</v>
       </c>
@@ -12296,7 +12297,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="198" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="198" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>982</v>
       </c>
@@ -12325,7 +12326,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="158.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>986</v>
       </c>
@@ -12354,7 +12355,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>1318</v>
       </c>
@@ -12383,7 +12384,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>1319</v>
       </c>
@@ -12412,7 +12413,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>1320</v>
       </c>
@@ -12441,7 +12442,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>1321</v>
       </c>
@@ -12470,7 +12471,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>1322</v>
       </c>
@@ -12499,7 +12500,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>1323</v>
       </c>
@@ -12528,7 +12529,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>1324</v>
       </c>
@@ -12557,7 +12558,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>1325</v>
       </c>
@@ -12586,7 +12587,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>1326</v>
       </c>
@@ -12615,7 +12616,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>1327</v>
       </c>
@@ -12644,7 +12645,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>1328</v>
       </c>
@@ -12673,7 +12674,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>1329</v>
       </c>
@@ -12702,7 +12703,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>1316</v>
       </c>
@@ -12731,7 +12732,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>1317</v>
       </c>
@@ -12760,7 +12761,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>1096</v>
       </c>
@@ -12789,7 +12790,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>1097</v>
       </c>
@@ -12818,7 +12819,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>1098</v>
       </c>
@@ -12847,7 +12848,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>1099</v>
       </c>
@@ -12876,7 +12877,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>1100</v>
       </c>
@@ -12905,7 +12906,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>1101</v>
       </c>
@@ -12934,7 +12935,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>1102</v>
       </c>
@@ -12963,7 +12964,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>1103</v>
       </c>
@@ -12992,7 +12993,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>1104</v>
       </c>
@@ -13021,7 +13022,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>1105</v>
       </c>
@@ -13050,7 +13051,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>1106</v>
       </c>
@@ -13079,7 +13080,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>1107</v>
       </c>
@@ -13108,7 +13109,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>1108</v>
       </c>
@@ -13137,7 +13138,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>1109</v>
       </c>
@@ -13166,7 +13167,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>1110</v>
       </c>
@@ -13195,7 +13196,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>1111</v>
       </c>
@@ -13224,7 +13225,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>1112</v>
       </c>
@@ -13253,7 +13254,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>1113</v>
       </c>
@@ -13282,7 +13283,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>1114</v>
       </c>
@@ -13311,7 +13312,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>1115</v>
       </c>
@@ -13340,7 +13341,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>1116</v>
       </c>
@@ -13369,7 +13370,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>1117</v>
       </c>
@@ -13398,7 +13399,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>1118</v>
       </c>
@@ -13427,7 +13428,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>1119</v>
       </c>
@@ -13456,7 +13457,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>1120</v>
       </c>
@@ -13485,7 +13486,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>1121</v>
       </c>
@@ -13514,7 +13515,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>1122</v>
       </c>
@@ -13543,7 +13544,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>1123</v>
       </c>
@@ -13572,7 +13573,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>1124</v>
       </c>
@@ -13601,7 +13602,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>1125</v>
       </c>
@@ -13630,7 +13631,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>1126</v>
       </c>
@@ -13659,7 +13660,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>1127</v>
       </c>
@@ -13688,7 +13689,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>1128</v>
       </c>
@@ -13717,7 +13718,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>1129</v>
       </c>
@@ -13746,7 +13747,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>1130</v>
       </c>
@@ -13775,7 +13776,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>1131</v>
       </c>
@@ -13804,7 +13805,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>1132</v>
       </c>
@@ -13833,7 +13834,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>1133</v>
       </c>
@@ -13862,7 +13863,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>1134</v>
       </c>
@@ -13891,7 +13892,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>1135</v>
       </c>
@@ -13920,7 +13921,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>1136</v>
       </c>
@@ -13949,7 +13950,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>1137</v>
       </c>
@@ -13978,7 +13979,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>1138</v>
       </c>
@@ -14007,7 +14008,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>1139</v>
       </c>
@@ -14036,7 +14037,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>1140</v>
       </c>
@@ -14065,7 +14066,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>1141</v>
       </c>
@@ -14094,7 +14095,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>1142</v>
       </c>
@@ -14123,7 +14124,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>1143</v>
       </c>
@@ -14152,7 +14153,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>1144</v>
       </c>
@@ -14181,7 +14182,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>1145</v>
       </c>
@@ -14210,7 +14211,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>1146</v>
       </c>
@@ -14239,7 +14240,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>1147</v>
       </c>
@@ -14268,7 +14269,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>1148</v>
       </c>
@@ -14297,7 +14298,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>1149</v>
       </c>
@@ -14326,7 +14327,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>1150</v>
       </c>
@@ -14355,7 +14356,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>1151</v>
       </c>
@@ -14384,7 +14385,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>1152</v>
       </c>
@@ -14413,7 +14414,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>1153</v>
       </c>
@@ -14442,7 +14443,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>1154</v>
       </c>
@@ -14471,7 +14472,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>1155</v>
       </c>
@@ -14500,7 +14501,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>1156</v>
       </c>
@@ -14529,7 +14530,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>1157</v>
       </c>
@@ -14558,7 +14559,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>1158</v>
       </c>
@@ -14587,7 +14588,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>1159</v>
       </c>
@@ -14616,7 +14617,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>1160</v>
       </c>
@@ -14645,7 +14646,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>1161</v>
       </c>
@@ -14674,7 +14675,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>1162</v>
       </c>
@@ -14703,7 +14704,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>1163</v>
       </c>
@@ -14732,7 +14733,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>1164</v>
       </c>
@@ -14761,7 +14762,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>1165</v>
       </c>
@@ -14790,7 +14791,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>1166</v>
       </c>
@@ -14819,7 +14820,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>1167</v>
       </c>
@@ -14848,7 +14849,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>1168</v>
       </c>
@@ -14877,7 +14878,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>1169</v>
       </c>
@@ -14906,7 +14907,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>1170</v>
       </c>
@@ -14935,7 +14936,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>1171</v>
       </c>
@@ -14964,7 +14965,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>1172</v>
       </c>
@@ -15051,7 +15052,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>1175</v>
       </c>
@@ -15312,7 +15313,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>1184</v>
       </c>
@@ -15486,7 +15487,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" ht="145.19999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>1190</v>
       </c>
@@ -15515,7 +15516,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="270" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" ht="270" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>1191</v>
       </c>
@@ -15544,7 +15545,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" ht="132" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>1192</v>
       </c>
@@ -15573,7 +15574,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="184.8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" ht="184.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>1314</v>
       </c>
@@ -15602,7 +15603,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>1193</v>
       </c>
@@ -15631,7 +15632,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>1194</v>
       </c>
@@ -15660,7 +15661,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>1195</v>
       </c>
@@ -15689,7 +15690,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>1196</v>
       </c>
@@ -15718,7 +15719,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>1197</v>
       </c>
@@ -15747,7 +15748,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>1198</v>
       </c>
@@ -15776,7 +15777,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>1199</v>
       </c>
@@ -15805,7 +15806,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>1200</v>
       </c>
@@ -15834,7 +15835,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>1201</v>
       </c>
@@ -15863,7 +15864,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>1202</v>
       </c>
@@ -15892,7 +15893,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>1203</v>
       </c>
@@ -15921,7 +15922,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>1204</v>
       </c>
@@ -15950,7 +15951,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>1205</v>
       </c>
@@ -15979,7 +15980,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>1206</v>
       </c>
@@ -16008,7 +16009,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" ht="132" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>1632</v>
       </c>
@@ -16037,7 +16038,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>1315</v>
       </c>
@@ -16066,7 +16067,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>1207</v>
       </c>
@@ -16095,7 +16096,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>1208</v>
       </c>
@@ -16124,7 +16125,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>1209</v>
       </c>
@@ -16153,7 +16154,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>1210</v>
       </c>
@@ -16182,7 +16183,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>1211</v>
       </c>
@@ -16211,7 +16212,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>1212</v>
       </c>
@@ -16240,7 +16241,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>1213</v>
       </c>
@@ -16269,7 +16270,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>1214</v>
       </c>
@@ -16298,7 +16299,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>1215</v>
       </c>
@@ -16327,7 +16328,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>1217</v>
       </c>
@@ -16356,7 +16357,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>1218</v>
       </c>
@@ -16385,7 +16386,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>1219</v>
       </c>
@@ -16414,7 +16415,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>1220</v>
       </c>
@@ -16443,7 +16444,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>1221</v>
       </c>
@@ -16472,7 +16473,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>1222</v>
       </c>
@@ -16501,7 +16502,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>1223</v>
       </c>
@@ -16530,7 +16531,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>1647</v>
       </c>
@@ -16559,7 +16560,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>1224</v>
       </c>
@@ -16588,7 +16589,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>1225</v>
       </c>
@@ -16617,7 +16618,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>1227</v>
       </c>
@@ -16646,7 +16647,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>1228</v>
       </c>
@@ -16675,7 +16676,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>1229</v>
       </c>
@@ -16704,7 +16705,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>1230</v>
       </c>
@@ -16733,7 +16734,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>1231</v>
       </c>
@@ -16762,7 +16763,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>1232</v>
       </c>
@@ -16791,7 +16792,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>1234</v>
       </c>
@@ -16820,7 +16821,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>1233</v>
       </c>
@@ -16849,7 +16850,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>1240</v>
       </c>
@@ -16878,7 +16879,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>1236</v>
       </c>
@@ -16907,7 +16908,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>1237</v>
       </c>
@@ -16936,7 +16937,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>1238</v>
       </c>
@@ -16965,7 +16966,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>1239</v>
       </c>
@@ -16994,7 +16995,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>1235</v>
       </c>
@@ -17023,7 +17024,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>1299</v>
       </c>
@@ -17052,7 +17053,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" ht="158.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>1298</v>
       </c>
@@ -17081,7 +17082,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>1300</v>
       </c>
@@ -17110,7 +17111,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>1302</v>
       </c>
@@ -17139,7 +17140,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="132" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" ht="132" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>1304</v>
       </c>
@@ -17168,7 +17169,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" ht="184.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>1306</v>
       </c>
@@ -17197,7 +17198,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" ht="158.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>1307</v>
       </c>
@@ -17226,7 +17227,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" ht="145.19999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>1309</v>
       </c>
@@ -17255,7 +17256,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" ht="145.19999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>1312</v>
       </c>
@@ -17284,7 +17285,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="132" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" ht="132" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>1313</v>
       </c>
@@ -17313,7 +17314,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="264" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>1332</v>
       </c>
@@ -17342,7 +17343,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="265" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>1333</v>
       </c>
@@ -17371,7 +17372,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>1334</v>
       </c>
@@ -17400,7 +17401,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="184.8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" ht="184.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>1340</v>
       </c>
@@ -17429,7 +17430,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="268" spans="1:9" ht="211.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" ht="211.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>1341</v>
       </c>
@@ -17458,7 +17459,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="269" spans="1:9" ht="132" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" ht="132" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>1342</v>
       </c>
@@ -17487,7 +17488,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="132" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" ht="132" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>1343</v>
       </c>
@@ -17516,7 +17517,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="271" spans="1:9" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>1344</v>
       </c>
@@ -17545,7 +17546,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="272" spans="1:9" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>1345</v>
       </c>
@@ -17574,7 +17575,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="273" spans="1:10" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" ht="158.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>1346</v>
       </c>
@@ -17603,7 +17604,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="274" spans="1:10" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" ht="145.19999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>1347</v>
       </c>
@@ -17632,7 +17633,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="275" spans="1:10" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" ht="145.19999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>1348</v>
       </c>
@@ -17661,7 +17662,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="276" spans="1:10" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" ht="145.19999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>1349</v>
       </c>
@@ -17690,7 +17691,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="277" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>1359</v>
       </c>
@@ -17719,7 +17720,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="278" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>1360</v>
       </c>
@@ -17748,7 +17749,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="279" spans="1:10" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>1361</v>
       </c>
@@ -17777,7 +17778,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="280" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>1362</v>
       </c>
@@ -17809,7 +17810,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="281" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>1366</v>
       </c>
@@ -17841,7 +17842,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="282" spans="1:10" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
         <v>1367</v>
       </c>
@@ -17873,7 +17874,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="283" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>1373</v>
       </c>
@@ -17905,7 +17906,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="284" spans="1:10" ht="132" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" ht="132" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>1374</v>
       </c>
@@ -17937,7 +17938,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="285" spans="1:10" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>1372</v>
       </c>
@@ -17969,7 +17970,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="286" spans="1:10" ht="132" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" ht="132" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>1371</v>
       </c>
@@ -18001,7 +18002,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="287" spans="1:10" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>1370</v>
       </c>
@@ -18033,7 +18034,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="288" spans="1:10" ht="132" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" ht="132" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>1368</v>
       </c>
@@ -18065,7 +18066,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="289" spans="1:10" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" ht="171.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>1369</v>
       </c>
@@ -18097,7 +18098,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="290" spans="1:10" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" ht="145.19999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>1375</v>
       </c>
@@ -18129,7 +18130,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="291" spans="1:10" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" ht="171.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>1376</v>
       </c>
@@ -18161,7 +18162,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="292" spans="1:10" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>1398</v>
       </c>
@@ -18190,7 +18191,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="293" spans="1:10" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>1399</v>
       </c>
@@ -18219,7 +18220,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="294" spans="1:10" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>1400</v>
       </c>
@@ -18248,7 +18249,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="295" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>1401</v>
       </c>
@@ -18277,7 +18278,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="296" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>1407</v>
       </c>
@@ -18306,7 +18307,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="297" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>1402</v>
       </c>
@@ -18335,7 +18336,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="298" spans="1:10" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>1403</v>
       </c>
@@ -18364,7 +18365,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="299" spans="1:10" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>1404</v>
       </c>
@@ -18393,7 +18394,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="300" spans="1:10" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>1405</v>
       </c>
@@ -18422,7 +18423,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="301" spans="1:10" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>1406</v>
       </c>
@@ -18451,7 +18452,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="302" spans="1:10" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>1408</v>
       </c>
@@ -18480,7 +18481,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="303" spans="1:10" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" ht="145.19999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>1496</v>
       </c>
@@ -18509,7 +18510,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="304" spans="1:10" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" ht="171.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>1497</v>
       </c>
@@ -18538,7 +18539,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="305" spans="1:10" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" ht="158.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>1498</v>
       </c>
@@ -18567,7 +18568,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="306" spans="1:10" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" ht="184.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>1499</v>
       </c>
@@ -18596,7 +18597,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="307" spans="1:10" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>1500</v>
       </c>
@@ -18625,7 +18626,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="308" spans="1:10" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" ht="145.19999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>1501</v>
       </c>
@@ -18654,7 +18655,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="309" spans="1:10" ht="132" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" ht="132" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>1502</v>
       </c>
@@ -18683,7 +18684,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="310" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>1430</v>
       </c>
@@ -18712,7 +18713,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="311" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>1432</v>
       </c>
@@ -18741,7 +18742,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="312" spans="1:10" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>1434</v>
       </c>
@@ -18770,7 +18771,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="313" spans="1:10" ht="132" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" ht="145.19999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>1435</v>
       </c>
@@ -18799,7 +18800,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="314" spans="1:10" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>1437</v>
       </c>
@@ -18828,7 +18829,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="315" spans="1:10" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>1438</v>
       </c>
@@ -18857,7 +18858,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="316" spans="1:10" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>1442</v>
       </c>
@@ -18886,7 +18887,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="317" spans="1:10" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>1443</v>
       </c>
@@ -18915,7 +18916,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="318" spans="1:10" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>1447</v>
       </c>
@@ -18944,7 +18945,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="319" spans="1:10" ht="250.8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" ht="250.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>1510</v>
       </c>
@@ -18976,7 +18977,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="320" spans="1:10" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>1462</v>
       </c>
@@ -19008,7 +19009,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="321" spans="1:10" ht="132" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" ht="132" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>1463</v>
       </c>
@@ -19040,7 +19041,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="322" spans="1:10" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>1464</v>
       </c>
@@ -19072,7 +19073,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="323" spans="1:10" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>1465</v>
       </c>
@@ -19104,7 +19105,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="324" spans="1:10" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" ht="158.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>1466</v>
       </c>
@@ -19133,7 +19134,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="325" spans="1:10" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" ht="171.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>1467</v>
       </c>
@@ -19162,7 +19163,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="326" spans="1:10" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>1468</v>
       </c>
@@ -19191,7 +19192,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="327" spans="1:10" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>1469</v>
       </c>
@@ -19220,7 +19221,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="328" spans="1:10" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>1470</v>
       </c>
@@ -19249,7 +19250,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="329" spans="1:10" ht="132" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" ht="132" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>1474</v>
       </c>
@@ -19278,7 +19279,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="330" spans="1:10" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" ht="171.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>1473</v>
       </c>
@@ -19307,7 +19308,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="331" spans="1:10" ht="184.8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" ht="184.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>1475</v>
       </c>
@@ -19336,7 +19337,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="332" spans="1:10" ht="198" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" ht="198" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>1476</v>
       </c>
@@ -19365,7 +19366,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="333" spans="1:10" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" ht="158.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>1477</v>
       </c>
@@ -19394,7 +19395,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="334" spans="1:10" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>1478</v>
       </c>
@@ -19423,7 +19424,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="335" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>1479</v>
       </c>
@@ -19452,7 +19453,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="336" spans="1:10" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>1480</v>
       </c>
@@ -19481,7 +19482,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="337" spans="1:10" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" ht="145.19999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>1489</v>
       </c>
@@ -19510,7 +19511,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="338" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>1490</v>
       </c>
@@ -19542,7 +19543,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="339" spans="1:10" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>1492</v>
       </c>
@@ -19571,7 +19572,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="340" spans="1:10" ht="184.8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" ht="184.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>1495</v>
       </c>
@@ -19600,7 +19601,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="341" spans="1:10" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" ht="184.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
         <v>1503</v>
       </c>
@@ -19629,7 +19630,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="342" spans="1:10" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" ht="171.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>1504</v>
       </c>
@@ -19658,7 +19659,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="343" spans="1:10" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" ht="145.19999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
         <v>1505</v>
       </c>
@@ -19687,7 +19688,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="344" spans="1:10" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" ht="158.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
         <v>1506</v>
       </c>
@@ -19716,7 +19717,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="345" spans="1:10" ht="132" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" ht="132" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
         <v>1507</v>
       </c>
@@ -19745,7 +19746,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="346" spans="1:10" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" ht="145.19999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
         <v>1508</v>
       </c>
@@ -19774,7 +19775,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="347" spans="1:10" ht="132" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" ht="132" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
         <v>1509</v>
       </c>
@@ -19803,7 +19804,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="348" spans="1:10" ht="184.8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" ht="184.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
         <v>1415</v>
       </c>
@@ -19835,7 +19836,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="349" spans="1:10" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" ht="171.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
         <v>1416</v>
       </c>
@@ -19867,7 +19868,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="350" spans="1:10" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" ht="158.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
         <v>1417</v>
       </c>
@@ -19899,7 +19900,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="351" spans="1:10" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" ht="158.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
         <v>1418</v>
       </c>
@@ -19931,7 +19932,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="352" spans="1:10" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" ht="171.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
         <v>1427</v>
       </c>
@@ -19963,7 +19964,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="353" spans="1:10" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" ht="145.19999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
         <v>1428</v>
       </c>
@@ -19995,7 +19996,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="354" spans="1:10" ht="132" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" ht="132" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
         <v>1429</v>
       </c>
@@ -20027,7 +20028,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="355" spans="1:10" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>1527</v>
       </c>
@@ -20056,7 +20057,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="356" spans="1:10" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" ht="158.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>1528</v>
       </c>
@@ -20085,7 +20086,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="357" spans="1:10" ht="132" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" ht="132" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>1529</v>
       </c>
@@ -20114,7 +20115,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="358" spans="1:10" ht="132" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" ht="132" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>1530</v>
       </c>
@@ -20143,7 +20144,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="359" spans="1:10" ht="132" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" ht="132" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>1531</v>
       </c>
@@ -20172,7 +20173,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="360" spans="1:10" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" ht="158.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>1532</v>
       </c>
@@ -20201,7 +20202,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="361" spans="1:10" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>1533</v>
       </c>
@@ -20230,7 +20231,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="362" spans="1:10" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>1534</v>
       </c>
@@ -20259,7 +20260,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="363" spans="1:10" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>1535</v>
       </c>
@@ -20288,7 +20289,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="364" spans="1:10" ht="250.8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" ht="250.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>1536</v>
       </c>
@@ -20320,7 +20321,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="365" spans="1:10" ht="250.8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" ht="250.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>1448</v>
       </c>
@@ -20352,7 +20353,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="366" spans="1:10" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>1549</v>
       </c>
@@ -20381,7 +20382,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="367" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>1550</v>
       </c>
@@ -20410,7 +20411,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="368" spans="1:10" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>1551</v>
       </c>
@@ -20439,7 +20440,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="369" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>1552</v>
       </c>
@@ -20468,7 +20469,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="370" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>1553</v>
       </c>
@@ -20497,7 +20498,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="371" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>1554</v>
       </c>
@@ -20526,7 +20527,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="372" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
         <v>1555</v>
       </c>
@@ -20555,7 +20556,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="373" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>1556</v>
       </c>
@@ -20584,7 +20585,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="374" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>1557</v>
       </c>
@@ -20613,7 +20614,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="375" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>1558</v>
       </c>
@@ -20642,7 +20643,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="376" spans="1:9" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>1539</v>
       </c>
@@ -20671,7 +20672,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="377" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>1540</v>
       </c>
@@ -20700,7 +20701,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="378" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>1541</v>
       </c>
@@ -20729,7 +20730,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="379" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>1542</v>
       </c>
@@ -20758,7 +20759,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="380" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>1543</v>
       </c>
@@ -20787,7 +20788,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="381" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>1544</v>
       </c>
@@ -20816,7 +20817,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="382" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>1545</v>
       </c>
@@ -20845,7 +20846,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="383" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>1546</v>
       </c>
@@ -20874,7 +20875,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="384" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>1547</v>
       </c>
@@ -20903,7 +20904,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="385" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>1548</v>
       </c>
@@ -20932,7 +20933,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="386" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>1635</v>
       </c>
@@ -20961,7 +20962,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="387" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>1636</v>
       </c>
@@ -20990,7 +20991,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="388" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>1637</v>
       </c>
@@ -21019,7 +21020,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="389" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>2143</v>
       </c>
@@ -21048,7 +21049,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="390" spans="1:9" s="2" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:9" s="2" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
         <v>2144</v>
       </c>
@@ -21077,7 +21078,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="391" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>1638</v>
       </c>
@@ -21106,7 +21107,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="392" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
         <v>1639</v>
       </c>
@@ -21135,7 +21136,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="393" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>1640</v>
       </c>
@@ -21164,7 +21165,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="394" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
         <v>2151</v>
       </c>
@@ -21193,7 +21194,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="395" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
         <v>2155</v>
       </c>
@@ -21222,7 +21223,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="396" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
         <v>1641</v>
       </c>
@@ -21251,7 +21252,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="397" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
         <v>1642</v>
       </c>
@@ -21280,7 +21281,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="398" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>1643</v>
       </c>
@@ -21309,7 +21310,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="399" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>2163</v>
       </c>
@@ -21338,7 +21339,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="400" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>2159</v>
       </c>
@@ -21367,7 +21368,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="401" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="3" t="s">
         <v>764</v>
       </c>
@@ -21396,7 +21397,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="402" spans="1:11" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="3" t="s">
         <v>2170</v>
       </c>
@@ -21428,7 +21429,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="403" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="3" t="s">
         <v>767</v>
       </c>
@@ -21460,7 +21461,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="404" spans="1:11" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="3" t="s">
         <v>1653</v>
       </c>
@@ -21492,7 +21493,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="405" spans="1:11" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="3" t="s">
         <v>770</v>
       </c>
@@ -21521,7 +21522,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="406" spans="1:11" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" ht="145.19999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
         <v>773</v>
       </c>
@@ -21550,7 +21551,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="407" spans="1:11" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="3" t="s">
         <v>776</v>
       </c>
@@ -21579,7 +21580,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="408" spans="1:11" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" ht="158.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
         <v>779</v>
       </c>
@@ -21608,7 +21609,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="409" spans="1:11" ht="132" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" ht="132" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="3" t="s">
         <v>782</v>
       </c>
@@ -21637,7 +21638,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="410" spans="1:11" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="3" t="s">
         <v>785</v>
       </c>
@@ -21666,7 +21667,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="411" spans="1:11" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="3" t="s">
         <v>788</v>
       </c>
@@ -21695,7 +21696,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="412" spans="1:11" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="3" t="s">
         <v>791</v>
       </c>
@@ -21724,7 +21725,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="413" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="3" t="s">
         <v>793</v>
       </c>
@@ -21753,7 +21754,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="414" spans="1:11" ht="66" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="3" t="s">
         <v>796</v>
       </c>
@@ -21782,7 +21783,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="415" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
         <v>799</v>
       </c>
@@ -21813,7 +21814,7 @@
       <c r="J415" s="3"/>
       <c r="K415" s="2"/>
     </row>
-    <row r="416" spans="1:11" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="3" t="s">
         <v>1597</v>
       </c>
@@ -21844,7 +21845,7 @@
       <c r="J416" s="3"/>
       <c r="K416" s="3"/>
     </row>
-    <row r="417" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="3" t="s">
         <v>1594</v>
       </c>
@@ -21873,7 +21874,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="418" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="3" t="s">
         <v>1649</v>
       </c>
@@ -21905,7 +21906,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="419" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="3" t="s">
         <v>807</v>
       </c>
@@ -21934,7 +21935,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="420" spans="1:10" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="3" t="s">
         <v>809</v>
       </c>
@@ -21963,7 +21964,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="421" spans="1:10" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="3" t="s">
         <v>811</v>
       </c>
@@ -21992,7 +21993,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="422" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="3" t="s">
         <v>814</v>
       </c>
@@ -22021,7 +22022,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="423" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="3" t="s">
         <v>816</v>
       </c>
@@ -22050,7 +22051,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="424" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:10" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="3" t="s">
         <v>818</v>
       </c>
@@ -22079,7 +22080,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="425" spans="1:10" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
         <v>820</v>
       </c>
@@ -22108,7 +22109,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="426" spans="1:10" ht="66" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
         <v>823</v>
       </c>
@@ -22137,7 +22138,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="427" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="3" t="s">
         <v>826</v>
       </c>
@@ -22166,7 +22167,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="428" spans="1:10" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="3" t="s">
         <v>828</v>
       </c>
@@ -22195,7 +22196,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="429" spans="1:10" ht="211.2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" ht="211.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
         <v>1606</v>
       </c>
@@ -22224,7 +22225,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="430" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="3" t="s">
         <v>833</v>
       </c>
@@ -22251,7 +22252,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="431" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="3" t="s">
         <v>835</v>
       </c>
@@ -22278,7 +22279,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="432" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="3" t="s">
         <v>1592</v>
       </c>
@@ -22307,7 +22308,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="433" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="3" t="s">
         <v>1591</v>
       </c>
@@ -22336,7 +22337,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="434" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="3" t="s">
         <v>1607</v>
       </c>
@@ -22365,7 +22366,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="435" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="3" t="s">
         <v>1605</v>
       </c>
@@ -22394,7 +22395,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="436" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="3" t="s">
         <v>848</v>
       </c>
@@ -22423,7 +22424,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="437" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="3" t="s">
         <v>851</v>
       </c>
@@ -22452,7 +22453,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="438" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="3" t="s">
         <v>854</v>
       </c>
@@ -22481,7 +22482,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="439" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="3" t="s">
         <v>857</v>
       </c>
@@ -22510,7 +22511,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="440" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="3" t="s">
         <v>859</v>
       </c>
@@ -22539,7 +22540,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="441" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="3" t="s">
         <v>862</v>
       </c>
@@ -22568,7 +22569,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="442" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="3" t="s">
         <v>864</v>
       </c>
@@ -22597,7 +22598,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="443" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="3" t="s">
         <v>866</v>
       </c>
@@ -22626,7 +22627,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="444" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="3" t="s">
         <v>868</v>
       </c>
@@ -22655,7 +22656,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="445" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="3" t="s">
         <v>870</v>
       </c>
@@ -22684,7 +22685,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="446" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
         <v>872</v>
       </c>
@@ -22713,7 +22714,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="447" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
         <v>875</v>
       </c>
@@ -22742,7 +22743,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="448" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
         <v>877</v>
       </c>
@@ -22771,7 +22772,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="449" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
         <v>879</v>
       </c>
@@ -22800,7 +22801,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="450" spans="1:9" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:9" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
         <v>881</v>
       </c>
@@ -22829,7 +22830,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="451" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:9" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="3" t="s">
         <v>884</v>
       </c>
@@ -22858,7 +22859,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="452" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="3" t="s">
         <v>887</v>
       </c>
@@ -22888,7 +22889,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J452" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:J452" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Access to Justice"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Problem Description"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G2:G1048576">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Inverse">
@@ -23496,15 +23508,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
@@ -23513,6 +23516,15 @@
     <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23535,14 +23547,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B292CFA-1308-4FFE-AD60-D9B08AB144B7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9CC4A80-4ECE-427A-8469-477A6F4D7F16}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -23557,4 +23561,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B292CFA-1308-4FFE-AD60-D9B08AB144B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data-viz/inputs/EU2 GPP 2023 Codebook.xlsx
+++ b/data-viz/inputs/EU2 GPP 2023 Codebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/EU Subnational/EU-S Data/reports/eu-gpp-report/data-viz/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1878" documentId="8_{65496F24-8EF0-4EA9-80D0-E64665E9412B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E322A35-D1B4-4D1E-B175-820DFF43E30F}"/>
+  <xr:revisionPtr revIDLastSave="1881" documentId="8_{65496F24-8EF0-4EA9-80D0-E64665E9412B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC9FB47B-9B83-47A7-93D3-34E8777D7F7F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9632,14 +9632,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K452"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C187" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C421" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F184" sqref="F184"/>
+      <selection pane="bottomRight" activeCell="E423" sqref="E423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9689,7 +9688,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>1609</v>
       </c>
@@ -9721,7 +9720,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>1613</v>
       </c>
@@ -9750,7 +9749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>1615</v>
       </c>
@@ -9782,7 +9781,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>1616</v>
       </c>
@@ -9814,7 +9813,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>1620</v>
       </c>
@@ -9846,7 +9845,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>1624</v>
       </c>
@@ -9878,7 +9877,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>1627</v>
       </c>
@@ -9910,7 +9909,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
@@ -9939,7 +9938,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>1622</v>
       </c>
@@ -9971,7 +9970,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>1629</v>
       </c>
@@ -10003,7 +10002,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>6</v>
       </c>
@@ -10032,7 +10031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="66" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -10061,7 +10060,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -10090,7 +10089,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="198" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="198" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -10119,7 +10118,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="198" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="198" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10151,7 +10150,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
@@ -10180,7 +10179,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>29</v>
       </c>
@@ -10209,7 +10208,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>31</v>
       </c>
@@ -10238,7 +10237,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
@@ -10267,7 +10266,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>42</v>
       </c>
@@ -10296,7 +10295,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>46</v>
       </c>
@@ -10325,7 +10324,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>50</v>
       </c>
@@ -10354,7 +10353,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>54</v>
       </c>
@@ -10383,7 +10382,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>58</v>
       </c>
@@ -10412,7 +10411,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>62</v>
       </c>
@@ -10441,7 +10440,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>66</v>
       </c>
@@ -10470,7 +10469,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>70</v>
       </c>
@@ -10499,7 +10498,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>74</v>
       </c>
@@ -10528,7 +10527,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>78</v>
       </c>
@@ -10557,7 +10556,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>84</v>
       </c>
@@ -10586,7 +10585,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>87</v>
       </c>
@@ -10615,7 +10614,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>90</v>
       </c>
@@ -10644,7 +10643,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>93</v>
       </c>
@@ -10673,7 +10672,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>96</v>
       </c>
@@ -10702,7 +10701,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>99</v>
       </c>
@@ -10731,7 +10730,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>104</v>
       </c>
@@ -10760,7 +10759,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>107</v>
       </c>
@@ -10789,7 +10788,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>110</v>
       </c>
@@ -10818,7 +10817,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>113</v>
       </c>
@@ -10847,7 +10846,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>116</v>
       </c>
@@ -10876,7 +10875,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>119</v>
       </c>
@@ -10905,7 +10904,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>122</v>
       </c>
@@ -10934,7 +10933,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>125</v>
       </c>
@@ -10963,7 +10962,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>128</v>
       </c>
@@ -10992,7 +10991,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>131</v>
       </c>
@@ -11021,7 +11020,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>134</v>
       </c>
@@ -11050,7 +11049,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>138</v>
       </c>
@@ -11079,7 +11078,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>140</v>
       </c>
@@ -11108,7 +11107,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>142</v>
       </c>
@@ -11137,7 +11136,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="132" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="132" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>144</v>
       </c>
@@ -11166,7 +11165,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>146</v>
       </c>
@@ -11195,7 +11194,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>148</v>
       </c>
@@ -11224,7 +11223,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>152</v>
       </c>
@@ -11253,7 +11252,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>157</v>
       </c>
@@ -11282,7 +11281,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>161</v>
       </c>
@@ -11311,7 +11310,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>165</v>
       </c>
@@ -11340,7 +11339,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>169</v>
       </c>
@@ -11369,7 +11368,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>173</v>
       </c>
@@ -11398,7 +11397,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>177</v>
       </c>
@@ -11427,7 +11426,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>180</v>
       </c>
@@ -11456,7 +11455,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>183</v>
       </c>
@@ -11485,7 +11484,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>186</v>
       </c>
@@ -11514,7 +11513,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>189</v>
       </c>
@@ -11543,7 +11542,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>193</v>
       </c>
@@ -11572,7 +11571,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>195</v>
       </c>
@@ -11601,7 +11600,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="145.19999999999999" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>197</v>
       </c>
@@ -11630,7 +11629,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="198" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="184.8" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>199</v>
       </c>
@@ -11659,7 +11658,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="184.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>203</v>
       </c>
@@ -11688,7 +11687,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="211.2" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>206</v>
       </c>
@@ -11717,7 +11716,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="211.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="198" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>1331</v>
       </c>
@@ -11746,7 +11745,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>211</v>
       </c>
@@ -11775,7 +11774,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>216</v>
       </c>
@@ -11804,7 +11803,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>219</v>
       </c>
@@ -11833,7 +11832,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>222</v>
       </c>
@@ -11862,7 +11861,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>224</v>
       </c>
@@ -11891,7 +11890,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>226</v>
       </c>
@@ -11920,7 +11919,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>228</v>
       </c>
@@ -11949,7 +11948,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>1330</v>
       </c>
@@ -11978,7 +11977,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>231</v>
       </c>
@@ -12007,7 +12006,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>233</v>
       </c>
@@ -12036,7 +12035,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>973</v>
       </c>
@@ -12065,7 +12064,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>974</v>
       </c>
@@ -12094,7 +12093,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="224.4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>975</v>
       </c>
@@ -12123,7 +12122,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="211.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="211.2" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>976</v>
       </c>
@@ -12152,7 +12151,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="211.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="184.8" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>1631</v>
       </c>
@@ -12181,7 +12180,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="184.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="184.8" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>978</v>
       </c>
@@ -12210,7 +12209,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="145.19999999999999" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>979</v>
       </c>
@@ -12239,7 +12238,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>980</v>
       </c>
@@ -12268,7 +12267,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="198" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="198" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>981</v>
       </c>
@@ -12297,7 +12296,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="198" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="198" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>982</v>
       </c>
@@ -12326,7 +12325,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="158.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>986</v>
       </c>
@@ -12355,7 +12354,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>1318</v>
       </c>
@@ -12384,7 +12383,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>1319</v>
       </c>
@@ -12413,7 +12412,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>1320</v>
       </c>
@@ -12442,7 +12441,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>1321</v>
       </c>
@@ -12471,7 +12470,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>1322</v>
       </c>
@@ -12500,7 +12499,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>1323</v>
       </c>
@@ -12529,7 +12528,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>1324</v>
       </c>
@@ -12558,7 +12557,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>1325</v>
       </c>
@@ -12587,7 +12586,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>1326</v>
       </c>
@@ -12616,7 +12615,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>1327</v>
       </c>
@@ -12645,7 +12644,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>1328</v>
       </c>
@@ -12674,7 +12673,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>1329</v>
       </c>
@@ -12703,7 +12702,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>1316</v>
       </c>
@@ -12732,7 +12731,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>1317</v>
       </c>
@@ -12761,7 +12760,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>1096</v>
       </c>
@@ -12790,7 +12789,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>1097</v>
       </c>
@@ -12819,7 +12818,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>1098</v>
       </c>
@@ -12848,7 +12847,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>1099</v>
       </c>
@@ -12877,7 +12876,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>1100</v>
       </c>
@@ -12906,7 +12905,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>1101</v>
       </c>
@@ -12935,7 +12934,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>1102</v>
       </c>
@@ -12964,7 +12963,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>1103</v>
       </c>
@@ -12993,7 +12992,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>1104</v>
       </c>
@@ -13022,7 +13021,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>1105</v>
       </c>
@@ -13051,7 +13050,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>1106</v>
       </c>
@@ -13080,7 +13079,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>1107</v>
       </c>
@@ -13109,7 +13108,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>1108</v>
       </c>
@@ -13138,7 +13137,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>1109</v>
       </c>
@@ -13167,7 +13166,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>1110</v>
       </c>
@@ -13196,7 +13195,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>1111</v>
       </c>
@@ -13225,7 +13224,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>1112</v>
       </c>
@@ -13254,7 +13253,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>1113</v>
       </c>
@@ -13283,7 +13282,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>1114</v>
       </c>
@@ -13312,7 +13311,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>1115</v>
       </c>
@@ -13341,7 +13340,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>1116</v>
       </c>
@@ -13370,7 +13369,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>1117</v>
       </c>
@@ -13399,7 +13398,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>1118</v>
       </c>
@@ -13428,7 +13427,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>1119</v>
       </c>
@@ -13457,7 +13456,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>1120</v>
       </c>
@@ -13486,7 +13485,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>1121</v>
       </c>
@@ -13515,7 +13514,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>1122</v>
       </c>
@@ -13544,7 +13543,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>1123</v>
       </c>
@@ -13573,7 +13572,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>1124</v>
       </c>
@@ -13602,7 +13601,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>1125</v>
       </c>
@@ -13631,7 +13630,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>1126</v>
       </c>
@@ -13660,7 +13659,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>1127</v>
       </c>
@@ -13689,7 +13688,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>1128</v>
       </c>
@@ -13718,7 +13717,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>1129</v>
       </c>
@@ -13747,7 +13746,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>1130</v>
       </c>
@@ -13776,7 +13775,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>1131</v>
       </c>
@@ -13805,7 +13804,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>1132</v>
       </c>
@@ -13834,7 +13833,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>1133</v>
       </c>
@@ -13863,7 +13862,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>1134</v>
       </c>
@@ -13892,7 +13891,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>1135</v>
       </c>
@@ -13921,7 +13920,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>1136</v>
       </c>
@@ -13950,7 +13949,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>1137</v>
       </c>
@@ -13979,7 +13978,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>1138</v>
       </c>
@@ -14008,7 +14007,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>1139</v>
       </c>
@@ -14037,7 +14036,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>1140</v>
       </c>
@@ -14066,7 +14065,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>1141</v>
       </c>
@@ -14095,7 +14094,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>1142</v>
       </c>
@@ -14124,7 +14123,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>1143</v>
       </c>
@@ -14153,7 +14152,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>1144</v>
       </c>
@@ -14182,7 +14181,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>1145</v>
       </c>
@@ -14211,7 +14210,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>1146</v>
       </c>
@@ -14240,7 +14239,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>1147</v>
       </c>
@@ -14269,7 +14268,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>1148</v>
       </c>
@@ -14298,7 +14297,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>1149</v>
       </c>
@@ -14327,7 +14326,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>1150</v>
       </c>
@@ -14356,7 +14355,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>1151</v>
       </c>
@@ -14385,7 +14384,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>1152</v>
       </c>
@@ -14414,7 +14413,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>1153</v>
       </c>
@@ -14443,7 +14442,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>1154</v>
       </c>
@@ -14472,7 +14471,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>1155</v>
       </c>
@@ -14501,7 +14500,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>1156</v>
       </c>
@@ -14530,7 +14529,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>1157</v>
       </c>
@@ -14559,7 +14558,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>1158</v>
       </c>
@@ -14588,7 +14587,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>1159</v>
       </c>
@@ -14617,7 +14616,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>1160</v>
       </c>
@@ -14646,7 +14645,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>1161</v>
       </c>
@@ -14675,7 +14674,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>1162</v>
       </c>
@@ -14704,7 +14703,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>1163</v>
       </c>
@@ -14733,7 +14732,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>1164</v>
       </c>
@@ -14762,7 +14761,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>1165</v>
       </c>
@@ -14791,7 +14790,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>1166</v>
       </c>
@@ -14820,7 +14819,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>1167</v>
       </c>
@@ -14849,7 +14848,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>1168</v>
       </c>
@@ -14878,7 +14877,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>1169</v>
       </c>
@@ -14907,7 +14906,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>1170</v>
       </c>
@@ -14936,7 +14935,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>1171</v>
       </c>
@@ -14965,7 +14964,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>1172</v>
       </c>
@@ -15052,7 +15051,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>1175</v>
       </c>
@@ -15313,7 +15312,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>1184</v>
       </c>
@@ -15487,7 +15486,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="145.19999999999999" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>1190</v>
       </c>
@@ -15516,7 +15515,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="270" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" ht="270" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>1191</v>
       </c>
@@ -15545,7 +15544,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="132" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>1192</v>
       </c>
@@ -15574,7 +15573,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="184.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" ht="184.8" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>1314</v>
       </c>
@@ -15603,7 +15602,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>1193</v>
       </c>
@@ -15632,7 +15631,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>1194</v>
       </c>
@@ -15661,7 +15660,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>1195</v>
       </c>
@@ -15690,7 +15689,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>1196</v>
       </c>
@@ -15719,7 +15718,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>1197</v>
       </c>
@@ -15748,7 +15747,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>1198</v>
       </c>
@@ -15777,7 +15776,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>1199</v>
       </c>
@@ -15806,7 +15805,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>1200</v>
       </c>
@@ -15835,7 +15834,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>1201</v>
       </c>
@@ -15864,7 +15863,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>1202</v>
       </c>
@@ -15893,7 +15892,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>1203</v>
       </c>
@@ -15922,7 +15921,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>1204</v>
       </c>
@@ -15951,7 +15950,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>1205</v>
       </c>
@@ -15980,7 +15979,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>1206</v>
       </c>
@@ -16009,7 +16008,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="132" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" ht="132" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>1632</v>
       </c>
@@ -16038,7 +16037,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" ht="224.4" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>1315</v>
       </c>
@@ -16067,7 +16066,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>1207</v>
       </c>
@@ -16096,7 +16095,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>1208</v>
       </c>
@@ -16125,7 +16124,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>1209</v>
       </c>
@@ -16154,7 +16153,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>1210</v>
       </c>
@@ -16183,7 +16182,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>1211</v>
       </c>
@@ -16212,7 +16211,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>1212</v>
       </c>
@@ -16241,7 +16240,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>1213</v>
       </c>
@@ -16270,7 +16269,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>1214</v>
       </c>
@@ -16299,7 +16298,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>1215</v>
       </c>
@@ -16328,7 +16327,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>1217</v>
       </c>
@@ -16357,7 +16356,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>1218</v>
       </c>
@@ -16386,7 +16385,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>1219</v>
       </c>
@@ -16415,7 +16414,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>1220</v>
       </c>
@@ -16444,7 +16443,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>1221</v>
       </c>
@@ -16473,7 +16472,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>1222</v>
       </c>
@@ -16502,7 +16501,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>1223</v>
       </c>
@@ -16531,7 +16530,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>1647</v>
       </c>
@@ -16560,7 +16559,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>1224</v>
       </c>
@@ -16589,7 +16588,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>1225</v>
       </c>
@@ -16618,7 +16617,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>1227</v>
       </c>
@@ -16647,7 +16646,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>1228</v>
       </c>
@@ -16676,7 +16675,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>1229</v>
       </c>
@@ -16705,7 +16704,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>1230</v>
       </c>
@@ -16734,7 +16733,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>1231</v>
       </c>
@@ -16763,7 +16762,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>1232</v>
       </c>
@@ -16792,7 +16791,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>1234</v>
       </c>
@@ -16821,7 +16820,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>1233</v>
       </c>
@@ -16850,7 +16849,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>1240</v>
       </c>
@@ -16879,7 +16878,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>1236</v>
       </c>
@@ -16908,7 +16907,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>1237</v>
       </c>
@@ -16937,7 +16936,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>1238</v>
       </c>
@@ -16966,7 +16965,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>1239</v>
       </c>
@@ -16995,7 +16994,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>1235</v>
       </c>
@@ -17024,7 +17023,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>1299</v>
       </c>
@@ -17053,7 +17052,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="158.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>1298</v>
       </c>
@@ -17082,7 +17081,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>1300</v>
       </c>
@@ -17111,7 +17110,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>1302</v>
       </c>
@@ -17140,7 +17139,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="132" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" ht="132" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>1304</v>
       </c>
@@ -17169,7 +17168,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="184.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>1306</v>
       </c>
@@ -17198,7 +17197,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="158.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>1307</v>
       </c>
@@ -17227,7 +17226,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="145.19999999999999" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>1309</v>
       </c>
@@ -17256,7 +17255,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="145.19999999999999" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>1312</v>
       </c>
@@ -17285,7 +17284,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="132" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" ht="132" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>1313</v>
       </c>
@@ -17314,7 +17313,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="264" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>1332</v>
       </c>
@@ -17343,7 +17342,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="265" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>1333</v>
       </c>
@@ -17372,7 +17371,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>1334</v>
       </c>
@@ -17401,7 +17400,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="184.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" ht="184.8" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>1340</v>
       </c>
@@ -17430,7 +17429,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="268" spans="1:9" ht="211.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" ht="211.2" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>1341</v>
       </c>
@@ -17459,7 +17458,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="269" spans="1:9" ht="132" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" ht="132" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>1342</v>
       </c>
@@ -17488,7 +17487,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="132" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" ht="132" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>1343</v>
       </c>
@@ -17517,7 +17516,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="271" spans="1:9" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>1344</v>
       </c>
@@ -17546,7 +17545,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="272" spans="1:9" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>1345</v>
       </c>
@@ -17575,7 +17574,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="273" spans="1:10" ht="158.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>1346</v>
       </c>
@@ -17604,7 +17603,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="274" spans="1:10" ht="145.19999999999999" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>1347</v>
       </c>
@@ -17633,7 +17632,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="275" spans="1:10" ht="145.19999999999999" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>1348</v>
       </c>
@@ -17662,7 +17661,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="276" spans="1:10" ht="145.19999999999999" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>1349</v>
       </c>
@@ -17691,7 +17690,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="277" spans="1:10" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>1359</v>
       </c>
@@ -17720,7 +17719,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="278" spans="1:10" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>1360</v>
       </c>
@@ -17749,7 +17748,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="279" spans="1:10" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>1361</v>
       </c>
@@ -17778,7 +17777,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="280" spans="1:10" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>1362</v>
       </c>
@@ -17810,7 +17809,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="281" spans="1:10" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>1366</v>
       </c>
@@ -17842,7 +17841,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="282" spans="1:10" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
         <v>1367</v>
       </c>
@@ -17874,7 +17873,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="283" spans="1:10" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>1373</v>
       </c>
@@ -17906,7 +17905,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="284" spans="1:10" ht="132" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" ht="132" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>1374</v>
       </c>
@@ -17938,7 +17937,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="285" spans="1:10" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>1372</v>
       </c>
@@ -17970,7 +17969,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="286" spans="1:10" ht="132" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" ht="132" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>1371</v>
       </c>
@@ -18002,7 +18001,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="287" spans="1:10" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>1370</v>
       </c>
@@ -18034,7 +18033,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="288" spans="1:10" ht="132" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" ht="132" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>1368</v>
       </c>
@@ -18066,7 +18065,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="289" spans="1:10" ht="171.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>1369</v>
       </c>
@@ -18098,7 +18097,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="290" spans="1:10" ht="145.19999999999999" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>1375</v>
       </c>
@@ -18130,7 +18129,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="291" spans="1:10" ht="171.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>1376</v>
       </c>
@@ -18162,7 +18161,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="292" spans="1:10" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>1398</v>
       </c>
@@ -18191,7 +18190,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="293" spans="1:10" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>1399</v>
       </c>
@@ -18220,7 +18219,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="294" spans="1:10" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>1400</v>
       </c>
@@ -18249,7 +18248,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="295" spans="1:10" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>1401</v>
       </c>
@@ -18278,7 +18277,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="296" spans="1:10" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>1407</v>
       </c>
@@ -18307,7 +18306,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="297" spans="1:10" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>1402</v>
       </c>
@@ -18336,7 +18335,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="298" spans="1:10" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>1403</v>
       </c>
@@ -18365,7 +18364,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="299" spans="1:10" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>1404</v>
       </c>
@@ -18394,7 +18393,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="300" spans="1:10" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>1405</v>
       </c>
@@ -18423,7 +18422,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="301" spans="1:10" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>1406</v>
       </c>
@@ -18452,7 +18451,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="302" spans="1:10" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>1408</v>
       </c>
@@ -18481,7 +18480,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="303" spans="1:10" ht="145.19999999999999" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>1496</v>
       </c>
@@ -18510,7 +18509,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="304" spans="1:10" ht="171.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>1497</v>
       </c>
@@ -18539,7 +18538,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="305" spans="1:10" ht="158.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>1498</v>
       </c>
@@ -18568,7 +18567,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="306" spans="1:10" ht="184.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>1499</v>
       </c>
@@ -18597,7 +18596,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="307" spans="1:10" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>1500</v>
       </c>
@@ -18626,7 +18625,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="308" spans="1:10" ht="145.19999999999999" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>1501</v>
       </c>
@@ -18655,7 +18654,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="309" spans="1:10" ht="132" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" ht="132" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>1502</v>
       </c>
@@ -18684,7 +18683,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="310" spans="1:10" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>1430</v>
       </c>
@@ -18713,7 +18712,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="311" spans="1:10" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>1432</v>
       </c>
@@ -18742,7 +18741,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="312" spans="1:10" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>1434</v>
       </c>
@@ -18771,7 +18770,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="313" spans="1:10" ht="145.19999999999999" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" ht="132" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>1435</v>
       </c>
@@ -18800,7 +18799,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="314" spans="1:10" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>1437</v>
       </c>
@@ -18829,7 +18828,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="315" spans="1:10" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>1438</v>
       </c>
@@ -18858,7 +18857,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="316" spans="1:10" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>1442</v>
       </c>
@@ -18887,7 +18886,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="317" spans="1:10" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>1443</v>
       </c>
@@ -18916,7 +18915,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="318" spans="1:10" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>1447</v>
       </c>
@@ -18945,7 +18944,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="319" spans="1:10" ht="250.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" ht="250.8" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>1510</v>
       </c>
@@ -18977,7 +18976,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="320" spans="1:10" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>1462</v>
       </c>
@@ -19009,7 +19008,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="321" spans="1:10" ht="132" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" ht="132" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>1463</v>
       </c>
@@ -19041,7 +19040,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="322" spans="1:10" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>1464</v>
       </c>
@@ -19073,7 +19072,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="323" spans="1:10" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>1465</v>
       </c>
@@ -19105,7 +19104,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="324" spans="1:10" ht="158.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>1466</v>
       </c>
@@ -19134,7 +19133,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="325" spans="1:10" ht="171.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>1467</v>
       </c>
@@ -19163,7 +19162,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="326" spans="1:10" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>1468</v>
       </c>
@@ -19192,7 +19191,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="327" spans="1:10" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>1469</v>
       </c>
@@ -19221,7 +19220,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="328" spans="1:10" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>1470</v>
       </c>
@@ -19250,7 +19249,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="329" spans="1:10" ht="132" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" ht="132" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>1474</v>
       </c>
@@ -19279,7 +19278,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="330" spans="1:10" ht="171.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>1473</v>
       </c>
@@ -19308,7 +19307,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="331" spans="1:10" ht="184.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" ht="184.8" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>1475</v>
       </c>
@@ -19337,7 +19336,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="332" spans="1:10" ht="198" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" ht="198" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>1476</v>
       </c>
@@ -19366,7 +19365,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="333" spans="1:10" ht="158.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>1477</v>
       </c>
@@ -19395,7 +19394,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="334" spans="1:10" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>1478</v>
       </c>
@@ -19424,7 +19423,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="335" spans="1:10" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>1479</v>
       </c>
@@ -19453,7 +19452,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="336" spans="1:10" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>1480</v>
       </c>
@@ -19482,7 +19481,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="337" spans="1:10" ht="145.19999999999999" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>1489</v>
       </c>
@@ -19511,7 +19510,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="338" spans="1:10" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>1490</v>
       </c>
@@ -19543,7 +19542,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="339" spans="1:10" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>1492</v>
       </c>
@@ -19572,7 +19571,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="340" spans="1:10" ht="184.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" ht="184.8" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>1495</v>
       </c>
@@ -19601,7 +19600,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="341" spans="1:10" ht="184.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
         <v>1503</v>
       </c>
@@ -19630,7 +19629,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="342" spans="1:10" ht="171.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>1504</v>
       </c>
@@ -19659,7 +19658,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="343" spans="1:10" ht="145.19999999999999" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
         <v>1505</v>
       </c>
@@ -19688,7 +19687,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="344" spans="1:10" ht="158.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
         <v>1506</v>
       </c>
@@ -19717,7 +19716,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="345" spans="1:10" ht="132" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" ht="132" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
         <v>1507</v>
       </c>
@@ -19746,7 +19745,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="346" spans="1:10" ht="145.19999999999999" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
         <v>1508</v>
       </c>
@@ -19775,7 +19774,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="347" spans="1:10" ht="132" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" ht="132" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
         <v>1509</v>
       </c>
@@ -19804,7 +19803,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="348" spans="1:10" ht="184.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" ht="184.8" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
         <v>1415</v>
       </c>
@@ -19836,7 +19835,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="349" spans="1:10" ht="171.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
         <v>1416</v>
       </c>
@@ -19868,7 +19867,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="350" spans="1:10" ht="158.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
         <v>1417</v>
       </c>
@@ -19900,7 +19899,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="351" spans="1:10" ht="158.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
         <v>1418</v>
       </c>
@@ -19932,7 +19931,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="352" spans="1:10" ht="171.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
         <v>1427</v>
       </c>
@@ -19964,7 +19963,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="353" spans="1:10" ht="145.19999999999999" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
         <v>1428</v>
       </c>
@@ -19996,7 +19995,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="354" spans="1:10" ht="132" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" ht="132" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
         <v>1429</v>
       </c>
@@ -20028,7 +20027,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="355" spans="1:10" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>1527</v>
       </c>
@@ -20057,7 +20056,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="356" spans="1:10" ht="158.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>1528</v>
       </c>
@@ -20086,7 +20085,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="357" spans="1:10" ht="132" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" ht="132" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>1529</v>
       </c>
@@ -20115,7 +20114,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="358" spans="1:10" ht="132" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" ht="132" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>1530</v>
       </c>
@@ -20144,7 +20143,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="359" spans="1:10" ht="132" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" ht="132" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>1531</v>
       </c>
@@ -20173,7 +20172,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="360" spans="1:10" ht="158.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>1532</v>
       </c>
@@ -20202,7 +20201,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="361" spans="1:10" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>1533</v>
       </c>
@@ -20231,7 +20230,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="362" spans="1:10" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>1534</v>
       </c>
@@ -20260,7 +20259,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="363" spans="1:10" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>1535</v>
       </c>
@@ -20289,7 +20288,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="364" spans="1:10" ht="250.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" ht="250.8" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>1536</v>
       </c>
@@ -20321,7 +20320,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="365" spans="1:10" ht="250.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" ht="250.8" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>1448</v>
       </c>
@@ -20353,7 +20352,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="366" spans="1:10" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>1549</v>
       </c>
@@ -20382,7 +20381,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="367" spans="1:10" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>1550</v>
       </c>
@@ -20411,7 +20410,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="368" spans="1:10" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>1551</v>
       </c>
@@ -20440,7 +20439,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="369" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>1552</v>
       </c>
@@ -20469,7 +20468,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="370" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>1553</v>
       </c>
@@ -20498,7 +20497,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="371" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>1554</v>
       </c>
@@ -20527,7 +20526,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="372" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
         <v>1555</v>
       </c>
@@ -20556,7 +20555,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="373" spans="1:9" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>1556</v>
       </c>
@@ -20585,7 +20584,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="374" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>1557</v>
       </c>
@@ -20614,7 +20613,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="375" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>1558</v>
       </c>
@@ -20643,7 +20642,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="376" spans="1:9" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>1539</v>
       </c>
@@ -20672,7 +20671,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="377" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>1540</v>
       </c>
@@ -20701,7 +20700,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="378" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>1541</v>
       </c>
@@ -20730,7 +20729,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="379" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>1542</v>
       </c>
@@ -20759,7 +20758,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="380" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>1543</v>
       </c>
@@ -20788,7 +20787,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="381" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>1544</v>
       </c>
@@ -20817,7 +20816,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="382" spans="1:9" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>1545</v>
       </c>
@@ -20846,7 +20845,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="383" spans="1:9" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>1546</v>
       </c>
@@ -20875,7 +20874,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="384" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>1547</v>
       </c>
@@ -20904,7 +20903,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="385" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>1548</v>
       </c>
@@ -20933,7 +20932,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="386" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>1635</v>
       </c>
@@ -20962,7 +20961,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="387" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>1636</v>
       </c>
@@ -20991,7 +20990,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="388" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>1637</v>
       </c>
@@ -21020,7 +21019,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="389" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>2143</v>
       </c>
@@ -21049,7 +21048,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="390" spans="1:9" s="2" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:9" s="2" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
         <v>2144</v>
       </c>
@@ -21078,7 +21077,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="391" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>1638</v>
       </c>
@@ -21107,7 +21106,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="392" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
         <v>1639</v>
       </c>
@@ -21136,7 +21135,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="393" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>1640</v>
       </c>
@@ -21165,7 +21164,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="394" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
         <v>2151</v>
       </c>
@@ -21194,7 +21193,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="395" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
         <v>2155</v>
       </c>
@@ -21223,7 +21222,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="396" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
         <v>1641</v>
       </c>
@@ -21252,7 +21251,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="397" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
         <v>1642</v>
       </c>
@@ -21281,7 +21280,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="398" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>1643</v>
       </c>
@@ -21310,7 +21309,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="399" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>2163</v>
       </c>
@@ -21339,7 +21338,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="400" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>2159</v>
       </c>
@@ -21368,7 +21367,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="401" spans="1:11" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A401" s="3" t="s">
         <v>764</v>
       </c>
@@ -21397,7 +21396,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="402" spans="1:11" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A402" s="3" t="s">
         <v>2170</v>
       </c>
@@ -21429,7 +21428,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="403" spans="1:11" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="3" t="s">
         <v>767</v>
       </c>
@@ -21461,7 +21460,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="404" spans="1:11" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="3" t="s">
         <v>1653</v>
       </c>
@@ -21493,7 +21492,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="405" spans="1:11" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A405" s="3" t="s">
         <v>770</v>
       </c>
@@ -21522,7 +21521,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="406" spans="1:11" ht="145.19999999999999" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
         <v>773</v>
       </c>
@@ -21551,7 +21550,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="407" spans="1:11" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A407" s="3" t="s">
         <v>776</v>
       </c>
@@ -21580,7 +21579,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="408" spans="1:11" ht="158.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
         <v>779</v>
       </c>
@@ -21609,7 +21608,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="409" spans="1:11" ht="132" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" ht="132" x14ac:dyDescent="0.25">
       <c r="A409" s="3" t="s">
         <v>782</v>
       </c>
@@ -21638,7 +21637,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="410" spans="1:11" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A410" s="3" t="s">
         <v>785</v>
       </c>
@@ -21667,7 +21666,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="411" spans="1:11" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A411" s="3" t="s">
         <v>788</v>
       </c>
@@ -21696,7 +21695,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="412" spans="1:11" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A412" s="3" t="s">
         <v>791</v>
       </c>
@@ -21725,7 +21724,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="413" spans="1:11" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A413" s="3" t="s">
         <v>793</v>
       </c>
@@ -21754,7 +21753,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="414" spans="1:11" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" ht="66" x14ac:dyDescent="0.25">
       <c r="A414" s="3" t="s">
         <v>796</v>
       </c>
@@ -21783,7 +21782,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="415" spans="1:11" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
         <v>799</v>
       </c>
@@ -21814,7 +21813,7 @@
       <c r="J415" s="3"/>
       <c r="K415" s="2"/>
     </row>
-    <row r="416" spans="1:11" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A416" s="3" t="s">
         <v>1597</v>
       </c>
@@ -21845,7 +21844,7 @@
       <c r="J416" s="3"/>
       <c r="K416" s="3"/>
     </row>
-    <row r="417" spans="1:10" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A417" s="3" t="s">
         <v>1594</v>
       </c>
@@ -21874,7 +21873,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="418" spans="1:10" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="3" t="s">
         <v>1649</v>
       </c>
@@ -21906,7 +21905,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="419" spans="1:10" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A419" s="3" t="s">
         <v>807</v>
       </c>
@@ -21935,7 +21934,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="420" spans="1:10" ht="105.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A420" s="3" t="s">
         <v>809</v>
       </c>
@@ -21964,7 +21963,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="421" spans="1:10" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A421" s="3" t="s">
         <v>811</v>
       </c>
@@ -21993,7 +21992,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="422" spans="1:10" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A422" s="3" t="s">
         <v>814</v>
       </c>
@@ -22022,7 +22021,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="423" spans="1:10" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A423" s="3" t="s">
         <v>816</v>
       </c>
@@ -22051,7 +22050,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="424" spans="1:10" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A424" s="3" t="s">
         <v>818</v>
       </c>
@@ -22080,7 +22079,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="425" spans="1:10" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
         <v>820</v>
       </c>
@@ -22109,7 +22108,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="426" spans="1:10" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10" ht="66" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
         <v>823</v>
       </c>
@@ -22138,7 +22137,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="427" spans="1:10" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A427" s="3" t="s">
         <v>826</v>
       </c>
@@ -22167,7 +22166,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="428" spans="1:10" ht="92.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A428" s="3" t="s">
         <v>828</v>
       </c>
@@ -22196,7 +22195,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="429" spans="1:10" ht="211.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" ht="211.2" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
         <v>1606</v>
       </c>
@@ -22225,7 +22224,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="430" spans="1:10" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A430" s="3" t="s">
         <v>833</v>
       </c>
@@ -22252,7 +22251,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="431" spans="1:10" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A431" s="3" t="s">
         <v>835</v>
       </c>
@@ -22279,7 +22278,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="432" spans="1:10" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A432" s="3" t="s">
         <v>1592</v>
       </c>
@@ -22308,7 +22307,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="433" spans="1:9" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A433" s="3" t="s">
         <v>1591</v>
       </c>
@@ -22337,7 +22336,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="434" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A434" s="3" t="s">
         <v>1607</v>
       </c>
@@ -22366,7 +22365,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="435" spans="1:9" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A435" s="3" t="s">
         <v>1605</v>
       </c>
@@ -22395,7 +22394,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="436" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A436" s="3" t="s">
         <v>848</v>
       </c>
@@ -22424,7 +22423,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="437" spans="1:9" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A437" s="3" t="s">
         <v>851</v>
       </c>
@@ -22453,7 +22452,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="438" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A438" s="3" t="s">
         <v>854</v>
       </c>
@@ -22482,7 +22481,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="439" spans="1:9" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A439" s="3" t="s">
         <v>857</v>
       </c>
@@ -22511,7 +22510,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="440" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A440" s="3" t="s">
         <v>859</v>
       </c>
@@ -22540,7 +22539,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="441" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A441" s="3" t="s">
         <v>862</v>
       </c>
@@ -22569,7 +22568,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="442" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A442" s="3" t="s">
         <v>864</v>
       </c>
@@ -22598,7 +22597,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="443" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A443" s="3" t="s">
         <v>866</v>
       </c>
@@ -22627,7 +22626,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="444" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A444" s="3" t="s">
         <v>868</v>
       </c>
@@ -22656,7 +22655,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="445" spans="1:9" ht="52.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A445" s="3" t="s">
         <v>870</v>
       </c>
@@ -22685,7 +22684,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="446" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
         <v>872</v>
       </c>
@@ -22714,7 +22713,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="447" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
         <v>875</v>
       </c>
@@ -22743,7 +22742,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="448" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
         <v>877</v>
       </c>
@@ -22772,7 +22771,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="449" spans="1:9" ht="79.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
         <v>879</v>
       </c>
@@ -22801,7 +22800,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="450" spans="1:9" ht="118.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:9" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
         <v>881</v>
       </c>
@@ -22830,7 +22829,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="451" spans="1:9" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A451" s="3" t="s">
         <v>884</v>
       </c>
@@ -22859,7 +22858,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="452" spans="1:9" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A452" s="3" t="s">
         <v>887</v>
       </c>
@@ -22889,18 +22888,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J452" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Access to Justice"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Problem Description"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J452" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G2:G1048576">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Inverse">
@@ -23259,6 +23247,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="579d0760968303502ff8eb3a8a5e610f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6855c386bbcb23a4cad2dada315b1779" ns2:_="" ns3:_="">
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
@@ -23507,41 +23515,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E1D3E68-141A-4B10-BC3E-18293AEC2113}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B292CFA-1308-4FFE-AD60-D9B08AB144B7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
-    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -23564,9 +23541,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B292CFA-1308-4FFE-AD60-D9B08AB144B7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E1D3E68-141A-4B10-BC3E-18293AEC2113}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>